--- a/biology/Histoire de la zoologie et de la botanique/Sydney_John_Hickson/Sydney_John_Hickson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sydney_John_Hickson/Sydney_John_Hickson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sydney John Hickson est un zoologiste britannique, né en 1859 et mort le 6 février 1940 à Cambridge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin d’une famille de neuf enfants, il est le fils d’un prospère fabricant de chaussures de la City à Londres. Il commence sa scolarité à Leatherhead avant d’entrer en 1873 à l’University College School. Il commence à suivre les cours d’un jeune professeur, arrivé l’année suivante, Sir Edwin Ray Lankester (1847-1929) qui va exercer une profonde influence sur lui. Sur les conseils de Sir Lankester, il entre au Downing College de Cambridge (1877). Après avoir reçu son diplôme, il devient démonstrateur de Henry Nottidge Moseley à Oxford et se lie alors d’amitié avec Sir Walter Baldwin Spencer (1860-1929).
 Hickson commence à étudier les coraux ainsi que l’anatomie des yeux des arthropodes. Il fait un long séjour (1885-1886) à Makassar dans le sud de Célèbes pour y étudier les récifs de coraux mais contracte alors le paludisme et doit partir sur les hauts plateaux de l’île. De retour en Angleterre, il travaille deux ans dans le laboratoire de Sir Lankester à l’University College de Londres. Il fait de nombreux voyages dans les Pays-Bas où il rencontre Ambrosius Arnold Willem Hubrecht (1853-1915), Jakob Maarten van Bemmelen (1830-1911), C.Ph. Sluiter, Max Carl Wilhelm Weber (1852-1937), etc. Les relations qu’il entretient avec ce pays, lui valent l’honneur d’être fait membre de la Société zoologique néerlandaise et il reçoit, en 1909, un doctorat honoris causa de l’université de Groningen.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Naturalist in North Celebes, 1888
 The Story of Life in the Seas
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Stanley Gardiner (1941b). Sydney John Hickson. 1859-1940, Obituary Notices of Fellows of the Royal Society, 3 (9) : 383-394.  (ISSN 1479-571X)</t>
         </is>
